--- a/var_info/indv_panel_var_info/SHARE_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/SHARE_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E9671-97A9-2C47-908A-624874ADBA5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19797E35-07E0-844F-BD88-EDB39379E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="145">
   <si>
     <t>age</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Older Adults</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -945,10 +948,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1304,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11:O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1319,7 @@
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1362,10 +1363,13 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1393,14 +1397,17 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>7</v>
       </c>
       <c r="K2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1428,14 +1435,17 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>7</v>
       </c>
       <c r="K3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1463,14 +1473,17 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>7</v>
       </c>
       <c r="K4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1498,14 +1511,17 @@
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>7</v>
       </c>
       <c r="K5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1533,14 +1549,17 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>7</v>
       </c>
       <c r="K6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1568,14 +1587,17 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>7</v>
       </c>
       <c r="K7">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1603,14 +1625,17 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>7</v>
       </c>
       <c r="K8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1638,14 +1663,17 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>7</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1673,7 +1701,7 @@
       <c r="I10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>2</v>
       </c>
       <c r="K10">
@@ -1682,8 +1710,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1742,7 @@
       <c r="I11" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
@@ -1720,8 +1751,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1783,7 @@
       <c r="I12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
@@ -1758,8 +1792,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1787,15 +1824,17 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="2"/>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1823,15 +1862,17 @@
       <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="2"/>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1859,15 +1900,17 @@
       <c r="I15" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="2"/>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1895,12 +1938,14 @@
       <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="2"/>
       <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1928,12 +1973,14 @@
       <c r="I17" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="2"/>
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1961,12 +2008,14 @@
       <c r="I18" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="2"/>
       <c r="K18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1997,9 +2046,11 @@
       <c r="J19">
         <v>4</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2030,9 +2081,11 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2063,9 +2116,11 @@
       <c r="J21">
         <v>4</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2096,9 +2151,11 @@
       <c r="J22">
         <v>4</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2129,9 +2186,11 @@
       <c r="J23">
         <v>4</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2162,9 +2221,11 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2195,8 +2256,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2227,8 +2291,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2259,9 +2326,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2292,9 +2361,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2325,8 +2396,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2357,8 +2431,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2389,8 +2466,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2421,8 +2501,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2453,8 +2536,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2488,8 +2574,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2523,8 +2612,11 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2558,8 +2650,11 @@
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2593,8 +2688,11 @@
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2628,8 +2726,11 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2663,8 +2764,11 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2698,8 +2802,11 @@
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2733,8 +2840,11 @@
       <c r="N41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2768,8 +2878,11 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2803,8 +2916,11 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2838,8 +2954,11 @@
       <c r="N44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2873,8 +2992,11 @@
       <c r="N45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2908,8 +3030,11 @@
       <c r="N46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2943,8 +3068,11 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2978,8 +3106,11 @@
       <c r="N48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3013,8 +3144,11 @@
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3048,8 +3182,11 @@
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3083,8 +3220,11 @@
       <c r="N51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3118,18 +3258,9 @@
       <c r="N52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="O52">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3138,10 +3269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3280,7 @@
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3193,10 +3324,13 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3212,11 +3346,11 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3232,11 +3366,11 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3252,11 +3386,11 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3272,11 +3406,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3292,11 +3426,11 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3312,11 +3446,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3332,11 +3466,11 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3352,11 +3486,11 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3372,11 +3506,11 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3392,11 +3526,11 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3412,11 +3546,11 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3432,11 +3566,11 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3452,11 +3586,11 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3472,11 +3606,11 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3492,11 +3626,11 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3512,11 +3646,11 @@
       <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3532,11 +3666,11 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3552,11 +3686,11 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -3572,11 +3706,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -3592,11 +3726,11 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3612,11 +3746,11 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3632,7 +3766,7 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3643,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3654,7 +3788,7 @@
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -3698,10 +3832,13 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3717,11 +3854,11 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3737,11 +3874,11 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3757,11 +3894,11 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3777,11 +3914,11 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3797,11 +3934,11 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3817,11 +3954,11 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3837,11 +3974,11 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3857,11 +3994,11 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3877,11 +4014,11 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3897,11 +4034,11 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3917,11 +4054,11 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3937,11 +4074,11 @@
       <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3957,11 +4094,11 @@
       <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3977,11 +4114,11 @@
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3997,11 +4134,11 @@
       <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4017,11 +4154,11 @@
       <c r="E17" t="s">
         <v>79</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4037,11 +4174,11 @@
       <c r="E18" t="s">
         <v>79</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4057,11 +4194,11 @@
       <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4077,11 +4214,11 @@
       <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4097,11 +4234,11 @@
       <c r="E21" t="s">
         <v>79</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4117,7 +4254,7 @@
       <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4128,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,7 +4276,7 @@
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -4183,10 +4320,13 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4202,11 +4342,11 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4222,11 +4362,11 @@
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4242,11 +4382,11 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4262,11 +4402,11 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4282,11 +4422,11 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4302,11 +4442,11 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4322,11 +4462,11 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4342,11 +4482,11 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4362,11 +4502,11 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4382,11 +4522,11 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4402,11 +4542,11 @@
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4422,11 +4562,11 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4442,11 +4582,11 @@
       <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4462,7 +4602,7 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4473,15 +4613,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -4525,6 +4665,9 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
       </c>
     </row>
